--- a/biology/Botanique/Parc_du_boulevard_Langelier/Parc_du_boulevard_Langelier.xlsx
+++ b/biology/Botanique/Parc_du_boulevard_Langelier/Parc_du_boulevard_Langelier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc du boulevard Langelier est une allée d'environ 0,6 kilomètre agissant comme terre-plein central du boulevard Langelier, dans l'arrondissement La Cité-Limoilou à Québec. Le parc constitue la délimitation entre les quartiers de Saint-Sauveur et de Saint-Roch. À son extrémité nord, on retrouve l'Hôpital général de Québec, fondé en 1692 par Jean-Baptiste de Saint-Vallier.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1792, la limite occidentale de la ville de Québec est fixée sur une ligne correspondant à l'emplacement actuel du boulevard Langelier. Cette limite constitue à l'époque une frontière géographique traçant les limites du faubourg Saint-Roch et soustrayant Saint-Sauveur à la réglementation de la ville.
 En 1866, survient un incendie qui détruit près de 2 500 maisons dans les quartiers ouvriers de la basse-ville de Québec. Pour empêcher qu'un autre brasier ne se propage aussi facilement d'un quartier à l'autre, cette voie est aménagée en pare-feu. Sa largeur passe de 9 à 30 mètres.
@@ -545,9 +559,11 @@
           <t>Mémorial des pompiers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au parc Langelier, en 2016, la Ville a inauguré le Mémorial des pompiers. « Ce lieu de mémoire est désormais dédié aux pompiers décédés en service, ainsi qu’aux incendies qui ont marqué l’histoire de la ville[1]. » 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au parc Langelier, en 2016, la Ville a inauguré le Mémorial des pompiers. « Ce lieu de mémoire est désormais dédié aux pompiers décédés en service, ainsi qu’aux incendies qui ont marqué l’histoire de la ville. » 
 A été intégrée au Mémorial des pompiers, placée au sommet d'une colonne : Mission accomplie, une sculpture réalisée par Truong Chanh Trung en 2005 à l'occasion des Jeux mondiaux des policiers et pompiers.
 </t>
         </is>
@@ -577,7 +593,9 @@
           <t>Autour du parc</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Statue de Sir Wilfrid Laurier
 Moulin à vent de l'Hôpital-Général-de-Québec
